--- a/for_PoC/sampleArticleData.xlsx
+++ b/for_PoC/sampleArticleData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EEF8629-66B4-466C-9D22-3F3FD8785A0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-20" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-15" windowWidth="38400" windowHeight="21135" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articleData" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -65,10 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>add1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -97,19 +99,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト6</t>
+    <t>テスト 6/13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +171,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -497,18 +503,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="12.7109375" style="1"/>
+    <col min="1" max="1" width="12.75" style="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="12.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -548,19 +554,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,25 +580,25 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/for_PoC/sampleArticleData.xlsx
+++ b/for_PoC/sampleArticleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EEF8629-66B4-466C-9D22-3F3FD8785A0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32BCDB35-0B58-448C-B475-EC28411DC849}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-15" windowWidth="38400" windowHeight="21135" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>title</t>
     <phoneticPr fontId="1"/>
@@ -99,7 +99,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>author_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>テスト 6/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>362497698374</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -504,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
@@ -517,7 +525,7 @@
     <col min="3" max="16384" width="12.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -528,22 +536,25 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -554,22 +565,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -580,18 +594,21 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
